--- a/Data/待床日与住院天数.xlsx
+++ b/Data/待床日与住院天数.xlsx
@@ -11,13 +11,14 @@
     <sheet name="预住院年月" sheetId="2" r:id="rId2"/>
     <sheet name="日间手术核算年月" sheetId="3" r:id="rId3"/>
     <sheet name="预住院核算年月" sheetId="4" r:id="rId4"/>
+    <sheet name="待床日与住院日" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="29">
   <si>
     <t>年月</t>
   </si>
@@ -61,6 +62,9 @@
     <t>2024-10</t>
   </si>
   <si>
+    <t>2024-11</t>
+  </si>
+  <si>
     <t>待床日</t>
   </si>
   <si>
@@ -70,7 +74,37 @@
     <t>核算年月</t>
   </si>
   <si>
-    <t>2024-11</t>
+    <t>2024-12</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>总数</t>
+  </si>
+  <si>
+    <t>个数</t>
+  </si>
+  <si>
+    <t>平均数</t>
+  </si>
+  <si>
+    <t>众数</t>
+  </si>
+  <si>
+    <t>中位数</t>
+  </si>
+  <si>
+    <t>日间手术待床日</t>
+  </si>
+  <si>
+    <t>预住院待床日</t>
+  </si>
+  <si>
+    <t>日间手术住院日</t>
+  </si>
+  <si>
+    <t>预住院住院日</t>
   </si>
 </sst>
 </file>
@@ -428,7 +462,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -579,13 +613,27 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D11">
-        <v>1.095744680851064</v>
+        <v>1.094736842105263</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>125</v>
+      </c>
+      <c r="C12">
+        <v>141</v>
+      </c>
+      <c r="D12">
+        <v>1.128</v>
       </c>
     </row>
   </sheetData>
@@ -594,406 +642,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <v>22</v>
-      </c>
-      <c r="E2">
-        <v>1.166666666666667</v>
-      </c>
-      <c r="F2">
-        <v>3.666666666666667</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>82</v>
-      </c>
-      <c r="C3">
-        <v>258</v>
-      </c>
-      <c r="D3">
-        <v>592</v>
-      </c>
-      <c r="E3">
-        <v>3.146341463414634</v>
-      </c>
-      <c r="F3">
-        <v>7.219512195121951</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>176</v>
-      </c>
-      <c r="C4">
-        <v>358</v>
-      </c>
-      <c r="D4">
-        <v>1051</v>
-      </c>
-      <c r="E4">
-        <v>2.034090909090909</v>
-      </c>
-      <c r="F4">
-        <v>5.971590909090909</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>141</v>
-      </c>
-      <c r="C5">
-        <v>174</v>
-      </c>
-      <c r="D5">
-        <v>540</v>
-      </c>
-      <c r="E5">
-        <v>1.234042553191489</v>
-      </c>
-      <c r="F5">
-        <v>3.829787234042553</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>157</v>
-      </c>
-      <c r="C6">
-        <v>224</v>
-      </c>
-      <c r="D6">
-        <v>613</v>
-      </c>
-      <c r="E6">
-        <v>1.426751592356688</v>
-      </c>
-      <c r="F6">
-        <v>3.904458598726114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>109</v>
-      </c>
-      <c r="C7">
-        <v>86</v>
-      </c>
-      <c r="D7">
-        <v>238</v>
-      </c>
-      <c r="E7">
-        <v>0.7889908256880734</v>
-      </c>
-      <c r="F7">
-        <v>2.18348623853211</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>180</v>
-      </c>
-      <c r="C8">
-        <v>246</v>
-      </c>
-      <c r="D8">
-        <v>698</v>
-      </c>
-      <c r="E8">
-        <v>1.366666666666667</v>
-      </c>
-      <c r="F8">
-        <v>3.877777777777778</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>163</v>
-      </c>
-      <c r="C9">
-        <v>242</v>
-      </c>
-      <c r="D9">
-        <v>621</v>
-      </c>
-      <c r="E9">
-        <v>1.484662576687117</v>
-      </c>
-      <c r="F9">
-        <v>3.809815950920246</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>137</v>
-      </c>
-      <c r="C10">
-        <v>118</v>
-      </c>
-      <c r="D10">
-        <v>298</v>
-      </c>
-      <c r="E10">
-        <v>0.8613138686131386</v>
-      </c>
-      <c r="F10">
-        <v>2.175182481751825</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>201</v>
-      </c>
-      <c r="C11">
-        <v>400</v>
-      </c>
-      <c r="D11">
-        <v>910</v>
-      </c>
-      <c r="E11">
-        <v>1.990049751243781</v>
-      </c>
-      <c r="F11">
-        <v>4.527363184079602</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>31</v>
-      </c>
-      <c r="C3">
-        <v>38</v>
-      </c>
-      <c r="D3">
-        <v>1.225806451612903</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>75</v>
-      </c>
-      <c r="C4">
-        <v>84</v>
-      </c>
-      <c r="D4">
-        <v>1.12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>77</v>
-      </c>
-      <c r="C5">
-        <v>85</v>
-      </c>
-      <c r="D5">
-        <v>1.103896103896104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>93</v>
-      </c>
-      <c r="C6">
-        <v>103</v>
-      </c>
-      <c r="D6">
-        <v>1.10752688172043</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>101</v>
-      </c>
-      <c r="C7">
-        <v>109</v>
-      </c>
-      <c r="D7">
-        <v>1.079207920792079</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>93</v>
-      </c>
-      <c r="C8">
-        <v>103</v>
-      </c>
-      <c r="D8">
-        <v>1.10752688172043</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>107</v>
-      </c>
-      <c r="C9">
-        <v>120</v>
-      </c>
-      <c r="D9">
-        <v>1.121495327102804</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>93</v>
-      </c>
-      <c r="C10">
-        <v>101</v>
-      </c>
-      <c r="D10">
-        <v>1.086021505376344</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11">
-        <v>20</v>
-      </c>
-      <c r="C11">
-        <v>22</v>
-      </c>
-      <c r="D11">
-        <v>1.1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F12"/>
   <sheetViews>
@@ -1003,19 +651,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -1026,19 +674,19 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>7</v>
       </c>
       <c r="D2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>1.4</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="F2">
-        <v>4.2</v>
+        <v>3.666666666666667</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1046,19 +694,19 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="C3">
-        <v>159</v>
+        <v>258</v>
       </c>
       <c r="D3">
-        <v>396</v>
+        <v>592</v>
       </c>
       <c r="E3">
-        <v>3.117647058823529</v>
+        <v>3.146341463414634</v>
       </c>
       <c r="F3">
-        <v>7.764705882352941</v>
+        <v>7.219512195121951</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1066,19 +714,19 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C4">
-        <v>432</v>
+        <v>358</v>
       </c>
       <c r="D4">
-        <v>1160</v>
+        <v>1051</v>
       </c>
       <c r="E4">
-        <v>2.297872340425532</v>
+        <v>2.034090909090909</v>
       </c>
       <c r="F4">
-        <v>6.170212765957447</v>
+        <v>5.971590909090909</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1086,19 +734,19 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C5">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D5">
-        <v>586</v>
+        <v>540</v>
       </c>
       <c r="E5">
-        <v>1.288732394366197</v>
+        <v>1.234042553191489</v>
       </c>
       <c r="F5">
-        <v>4.126760563380282</v>
+        <v>3.829787234042553</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1106,19 +754,19 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="C6">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="D6">
-        <v>545</v>
+        <v>613</v>
       </c>
       <c r="E6">
-        <v>1.406896551724138</v>
+        <v>1.426751592356688</v>
       </c>
       <c r="F6">
-        <v>3.758620689655173</v>
+        <v>3.904458598726114</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1126,19 +774,19 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C7">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="D7">
-        <v>320</v>
+        <v>238</v>
       </c>
       <c r="E7">
-        <v>0.9206349206349206</v>
+        <v>0.7889908256880734</v>
       </c>
       <c r="F7">
-        <v>2.53968253968254</v>
+        <v>2.18348623853211</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1146,19 +794,19 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="C8">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="D8">
-        <v>602</v>
+        <v>698</v>
       </c>
       <c r="E8">
-        <v>1.296969696969697</v>
+        <v>1.366666666666667</v>
       </c>
       <c r="F8">
-        <v>3.648484848484848</v>
+        <v>3.877777777777778</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1166,19 +814,19 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C9">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="D9">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="E9">
-        <v>1.464516129032258</v>
+        <v>1.484662576687117</v>
       </c>
       <c r="F9">
-        <v>3.929032258064516</v>
+        <v>3.809815950920246</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1186,19 +834,19 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C10">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="D10">
-        <v>353</v>
+        <v>298</v>
       </c>
       <c r="E10">
-        <v>1.006896551724138</v>
+        <v>0.8613138686131386</v>
       </c>
       <c r="F10">
-        <v>2.43448275862069</v>
+        <v>2.175182481751825</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1206,6 +854,440 @@
         <v>13</v>
       </c>
       <c r="B11">
+        <v>201</v>
+      </c>
+      <c r="C11">
+        <v>400</v>
+      </c>
+      <c r="D11">
+        <v>913</v>
+      </c>
+      <c r="E11">
+        <v>1.990049751243781</v>
+      </c>
+      <c r="F11">
+        <v>4.54228855721393</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>258</v>
+      </c>
+      <c r="C12">
+        <v>452</v>
+      </c>
+      <c r="D12">
+        <v>1113</v>
+      </c>
+      <c r="E12">
+        <v>1.751937984496124</v>
+      </c>
+      <c r="F12">
+        <v>4.313953488372093</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>31</v>
+      </c>
+      <c r="C3">
+        <v>38</v>
+      </c>
+      <c r="D3">
+        <v>1.225806451612903</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>75</v>
+      </c>
+      <c r="C4">
+        <v>84</v>
+      </c>
+      <c r="D4">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>77</v>
+      </c>
+      <c r="C5">
+        <v>85</v>
+      </c>
+      <c r="D5">
+        <v>1.103896103896104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>93</v>
+      </c>
+      <c r="C6">
+        <v>103</v>
+      </c>
+      <c r="D6">
+        <v>1.10752688172043</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>101</v>
+      </c>
+      <c r="C7">
+        <v>109</v>
+      </c>
+      <c r="D7">
+        <v>1.079207920792079</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>93</v>
+      </c>
+      <c r="C8">
+        <v>103</v>
+      </c>
+      <c r="D8">
+        <v>1.10752688172043</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>107</v>
+      </c>
+      <c r="C9">
+        <v>120</v>
+      </c>
+      <c r="D9">
+        <v>1.121495327102804</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>93</v>
+      </c>
+      <c r="C10">
+        <v>101</v>
+      </c>
+      <c r="D10">
+        <v>1.086021505376344</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>128</v>
+      </c>
+      <c r="C11">
+        <v>145</v>
+      </c>
+      <c r="D11">
+        <v>1.1328125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <v>19</v>
+      </c>
+      <c r="D12">
+        <v>1.055555555555556</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>21</v>
+      </c>
+      <c r="E2">
+        <v>1.4</v>
+      </c>
+      <c r="F2">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>51</v>
+      </c>
+      <c r="C3">
+        <v>159</v>
+      </c>
+      <c r="D3">
+        <v>396</v>
+      </c>
+      <c r="E3">
+        <v>3.117647058823529</v>
+      </c>
+      <c r="F3">
+        <v>7.764705882352941</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>188</v>
+      </c>
+      <c r="C4">
+        <v>432</v>
+      </c>
+      <c r="D4">
+        <v>1160</v>
+      </c>
+      <c r="E4">
+        <v>2.297872340425532</v>
+      </c>
+      <c r="F4">
+        <v>6.170212765957447</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>142</v>
+      </c>
+      <c r="C5">
+        <v>183</v>
+      </c>
+      <c r="D5">
+        <v>586</v>
+      </c>
+      <c r="E5">
+        <v>1.288732394366197</v>
+      </c>
+      <c r="F5">
+        <v>4.126760563380282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>145</v>
+      </c>
+      <c r="C6">
+        <v>204</v>
+      </c>
+      <c r="D6">
+        <v>545</v>
+      </c>
+      <c r="E6">
+        <v>1.406896551724138</v>
+      </c>
+      <c r="F6">
+        <v>3.758620689655173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>126</v>
+      </c>
+      <c r="C7">
+        <v>116</v>
+      </c>
+      <c r="D7">
+        <v>320</v>
+      </c>
+      <c r="E7">
+        <v>0.9206349206349206</v>
+      </c>
+      <c r="F7">
+        <v>2.53968253968254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>165</v>
+      </c>
+      <c r="C8">
+        <v>214</v>
+      </c>
+      <c r="D8">
+        <v>602</v>
+      </c>
+      <c r="E8">
+        <v>1.296969696969697</v>
+      </c>
+      <c r="F8">
+        <v>3.648484848484848</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>155</v>
+      </c>
+      <c r="C9">
+        <v>227</v>
+      </c>
+      <c r="D9">
+        <v>609</v>
+      </c>
+      <c r="E9">
+        <v>1.464516129032258</v>
+      </c>
+      <c r="F9">
+        <v>3.929032258064516</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>145</v>
+      </c>
+      <c r="C10">
+        <v>146</v>
+      </c>
+      <c r="D10">
+        <v>353</v>
+      </c>
+      <c r="E10">
+        <v>1.006896551724138</v>
+      </c>
+      <c r="F10">
+        <v>2.43448275862069</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
         <v>176</v>
       </c>
       <c r="C11">
@@ -1223,22 +1305,155 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B12">
-        <v>54</v>
+        <v>280</v>
       </c>
       <c r="C12">
-        <v>126</v>
+        <v>514</v>
       </c>
       <c r="D12">
-        <v>265</v>
+        <v>1266</v>
       </c>
       <c r="E12">
-        <v>2.333333333333333</v>
+        <v>1.835714285714286</v>
       </c>
       <c r="F12">
-        <v>4.907407407407407</v>
+        <v>4.521428571428571</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>32</v>
+      </c>
+      <c r="C13">
+        <v>64</v>
+      </c>
+      <c r="D13">
+        <v>115</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>3.59375</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>478</v>
+      </c>
+      <c r="C2">
+        <v>824</v>
+      </c>
+      <c r="D2">
+        <v>0.5800970873786407</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3">
+        <v>2080</v>
+      </c>
+      <c r="C3">
+        <v>778</v>
+      </c>
+      <c r="D3">
+        <v>2.673521850899743</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <v>906</v>
+      </c>
+      <c r="C4">
+        <v>824</v>
+      </c>
+      <c r="D4">
+        <v>1.099514563106796</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5">
+        <v>5728</v>
+      </c>
+      <c r="C5">
+        <v>778</v>
+      </c>
+      <c r="D5">
+        <v>7.362467866323907</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
